--- a/Mythical Ink Items.xlsx
+++ b/Mythical Ink Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69cdac8a8816f498/Documents/DnD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69cdac8a8816f498/Documents/GitHub/DnD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{30776223-B233-401B-AB3E-01168C34D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{30776223-B233-401B-AB3E-01168C34D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5849BC3C-0F2E-4355-A380-C336B2DB5011}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mythical Ink Items" sheetId="1" r:id="rId1"/>
@@ -1870,7 +1870,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2459,7 +2459,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2508,6 +2508,7 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2553,63 +2554,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFED7D31"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2622,6 +2567,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FFAF79FF"/>
       <color rgb="FFCB5D13"/>
       <color rgb="FF9966FF"/>
@@ -2935,11 +2881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J526"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,7 +3094,7 @@
       <c r="I9" s="1">
         <v>2500</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -14232,7 +14178,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J526">
-    <sortCondition sortBy="cellColor" ref="J2:J526" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="J2:J526" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Mythical Ink Items.xlsx
+++ b/Mythical Ink Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69cdac8a8816f498/Documents/GitHub/DnD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liron\Documents\GitHub\DnD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{30776223-B233-401B-AB3E-01168C34D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5849BC3C-0F2E-4355-A380-C336B2DB5011}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F9088-B5D6-4A1C-BF5F-4804481C8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mythical Ink Items" sheetId="1" r:id="rId1"/>
@@ -2007,7 +2007,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2283,6 +2283,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2459,7 +2465,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2509,6 +2515,7 @@
     <xf numFmtId="0" fontId="17" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2874,7 +2881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2884,21 +2891,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J186" sqref="J186"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="55.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2937,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
@@ -2950,7 +2957,7 @@
       </c>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -2974,9 +2981,9 @@
       <c r="I3" s="1">
         <v>1000</v>
       </c>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -2996,7 +3003,7 @@
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>207</v>
       </c>
@@ -3016,7 +3023,7 @@
       </c>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>208</v>
       </c>
@@ -3036,7 +3043,7 @@
       </c>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>209</v>
       </c>
@@ -3056,7 +3063,7 @@
       </c>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>210</v>
       </c>
@@ -3076,7 +3083,7 @@
       </c>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
@@ -3096,7 +3103,7 @@
       </c>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>211</v>
       </c>
@@ -3116,7 +3123,7 @@
       </c>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>212</v>
       </c>
@@ -3136,7 +3143,7 @@
       </c>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -3160,7 +3167,7 @@
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -3180,7 +3187,7 @@
       </c>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>213</v>
       </c>
@@ -3200,7 +3207,7 @@
       </c>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>154</v>
       </c>
@@ -3220,7 +3227,7 @@
       </c>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>227</v>
       </c>
@@ -3240,7 +3247,7 @@
       </c>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>214</v>
       </c>
@@ -3260,7 +3267,7 @@
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>215</v>
       </c>
@@ -3280,7 +3287,7 @@
       </c>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>216</v>
       </c>
@@ -3300,7 +3307,7 @@
       </c>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>171</v>
       </c>
@@ -3320,7 +3327,7 @@
       </c>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>238</v>
       </c>
@@ -3340,7 +3347,7 @@
       </c>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>217</v>
       </c>
@@ -3360,7 +3367,7 @@
       </c>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -3380,7 +3387,7 @@
       </c>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>239</v>
       </c>
@@ -3400,7 +3407,7 @@
       </c>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>218</v>
       </c>
@@ -3420,7 +3427,7 @@
       </c>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>193</v>
       </c>
@@ -3440,7 +3447,7 @@
       </c>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>219</v>
       </c>
@@ -3460,7 +3467,7 @@
       </c>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>240</v>
       </c>
@@ -3480,7 +3487,7 @@
       </c>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>220</v>
       </c>
@@ -3500,7 +3507,7 @@
       </c>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>286</v>
       </c>
@@ -3526,7 +3533,7 @@
       </c>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3552,7 +3559,7 @@
       </c>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>221</v>
       </c>
@@ -3572,7 +3579,7 @@
       </c>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>595</v>
       </c>
@@ -3592,7 +3599,7 @@
       </c>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>222</v>
       </c>
@@ -3612,7 +3619,7 @@
       </c>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>610</v>
       </c>
@@ -3632,7 +3639,7 @@
       </c>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -3658,7 +3665,7 @@
       </c>
       <c r="J36" s="16"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
@@ -3678,7 +3685,7 @@
       </c>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
@@ -3698,7 +3705,7 @@
       </c>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -3718,7 +3725,7 @@
       </c>
       <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
@@ -3738,7 +3745,7 @@
       </c>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
@@ -3758,7 +3765,7 @@
       </c>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>385</v>
       </c>
@@ -3778,7 +3785,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>228</v>
       </c>
@@ -3798,7 +3805,7 @@
       </c>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>121</v>
       </c>
@@ -3818,7 +3825,7 @@
       </c>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>123</v>
       </c>
@@ -3838,7 +3845,7 @@
       </c>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
@@ -3858,7 +3865,7 @@
       </c>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>535</v>
       </c>
@@ -3878,7 +3885,7 @@
       </c>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>536</v>
       </c>
@@ -3898,7 +3905,7 @@
       </c>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -3918,7 +3925,7 @@
       </c>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
@@ -3938,7 +3945,7 @@
       </c>
       <c r="J50" s="16"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
@@ -3958,7 +3965,7 @@
       </c>
       <c r="J51" s="16"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>131</v>
       </c>
@@ -3978,7 +3985,7 @@
       </c>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>134</v>
       </c>
@@ -3998,7 +4005,7 @@
       </c>
       <c r="J53" s="16"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
@@ -4018,7 +4025,7 @@
       </c>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>136</v>
       </c>
@@ -4038,7 +4045,7 @@
       </c>
       <c r="J55" s="16"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>322</v>
       </c>
@@ -4058,7 +4065,7 @@
       </c>
       <c r="J56" s="16"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -4078,7 +4085,7 @@
       </c>
       <c r="J57" s="16"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>139</v>
       </c>
@@ -4098,7 +4105,7 @@
       </c>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
@@ -4118,7 +4125,7 @@
       </c>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
@@ -4138,7 +4145,7 @@
       </c>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>33</v>
       </c>
@@ -4164,7 +4171,7 @@
       </c>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>142</v>
       </c>
@@ -4184,7 +4191,7 @@
       </c>
       <c r="J62" s="16"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>542</v>
       </c>
@@ -4204,7 +4211,7 @@
       </c>
       <c r="J63" s="16"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>107</v>
       </c>
@@ -4224,7 +4231,7 @@
       </c>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
@@ -4250,7 +4257,7 @@
       </c>
       <c r="J65" s="16"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>603</v>
       </c>
@@ -4270,7 +4277,7 @@
       </c>
       <c r="J66" s="16"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>548</v>
       </c>
@@ -4290,7 +4297,7 @@
       </c>
       <c r="J67" s="16"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>225</v>
       </c>
@@ -4310,7 +4317,7 @@
       </c>
       <c r="J68" s="16"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>223</v>
       </c>
@@ -4330,7 +4337,7 @@
       </c>
       <c r="J69" s="16"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>229</v>
       </c>
@@ -4350,7 +4357,7 @@
       </c>
       <c r="J70" s="16"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>554</v>
       </c>
@@ -4370,7 +4377,7 @@
       </c>
       <c r="J71" s="16"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>556</v>
       </c>
@@ -4390,7 +4397,7 @@
       </c>
       <c r="J72" s="16"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
@@ -4410,7 +4417,7 @@
       </c>
       <c r="J73" s="16"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
@@ -4430,7 +4437,7 @@
       </c>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>558</v>
       </c>
@@ -4450,7 +4457,7 @@
       </c>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>231</v>
       </c>
@@ -4470,7 +4477,7 @@
       </c>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>606</v>
       </c>
@@ -4490,7 +4497,7 @@
       </c>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>563</v>
       </c>
@@ -4510,7 +4517,7 @@
       </c>
       <c r="J78" s="16"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
@@ -4530,7 +4537,7 @@
       </c>
       <c r="J79" s="16"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
@@ -4556,7 +4563,7 @@
       </c>
       <c r="J80" s="16"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -4582,7 +4589,7 @@
       </c>
       <c r="J81" s="16"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>74</v>
       </c>
@@ -4608,7 +4615,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>76</v>
       </c>
@@ -4634,7 +4641,7 @@
       </c>
       <c r="J83" s="16"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>152</v>
       </c>
@@ -4654,7 +4661,7 @@
       </c>
       <c r="J84" s="16"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>153</v>
       </c>
@@ -4674,7 +4681,7 @@
       </c>
       <c r="J85" s="16"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
@@ -4700,7 +4707,7 @@
       </c>
       <c r="J86" s="16"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>43</v>
       </c>
@@ -4726,7 +4733,7 @@
       </c>
       <c r="J87" s="16"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>99</v>
       </c>
@@ -4752,7 +4759,7 @@
       </c>
       <c r="J88" s="16"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>569</v>
       </c>
@@ -4772,7 +4779,7 @@
       </c>
       <c r="J89" s="16"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>234</v>
       </c>
@@ -4792,7 +4799,7 @@
       </c>
       <c r="J90" s="16"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>159</v>
       </c>
@@ -4812,7 +4819,7 @@
       </c>
       <c r="J91" s="16"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>160</v>
       </c>
@@ -4832,7 +4839,7 @@
       </c>
       <c r="J92" s="16"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>570</v>
       </c>
@@ -4852,7 +4859,7 @@
       </c>
       <c r="J93" s="16"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>161</v>
       </c>
@@ -4872,7 +4879,7 @@
       </c>
       <c r="J94" s="16"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>162</v>
       </c>
@@ -4892,7 +4899,7 @@
       </c>
       <c r="J95" s="16"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>46</v>
       </c>
@@ -4918,7 +4925,7 @@
       </c>
       <c r="J96" s="16"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>163</v>
       </c>
@@ -4938,7 +4945,7 @@
       </c>
       <c r="J97" s="16"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>165</v>
       </c>
@@ -4958,7 +4965,7 @@
       </c>
       <c r="J98" s="16"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>77</v>
       </c>
@@ -4984,7 +4991,7 @@
       </c>
       <c r="J99" s="16"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
@@ -5004,7 +5011,7 @@
       </c>
       <c r="J100" s="16"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -5024,7 +5031,7 @@
       </c>
       <c r="J101" s="16"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -5048,7 +5055,7 @@
       </c>
       <c r="J102" s="16"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>232</v>
       </c>
@@ -5068,7 +5075,7 @@
       </c>
       <c r="J103" s="16"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>233</v>
       </c>
@@ -5088,7 +5095,7 @@
       </c>
       <c r="J104" s="16"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
@@ -5112,7 +5119,7 @@
       </c>
       <c r="J105" s="16"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>169</v>
       </c>
@@ -5132,7 +5139,7 @@
       </c>
       <c r="J106" s="16"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>173</v>
       </c>
@@ -5152,7 +5159,7 @@
       </c>
       <c r="J107" s="16"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>580</v>
       </c>
@@ -5172,7 +5179,7 @@
       </c>
       <c r="J108" s="16"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>581</v>
       </c>
@@ -5192,7 +5199,7 @@
       </c>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>174</v>
       </c>
@@ -5212,7 +5219,7 @@
       </c>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>177</v>
       </c>
@@ -5232,7 +5239,7 @@
       </c>
       <c r="J111" s="16"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>605</v>
       </c>
@@ -5252,7 +5259,7 @@
       </c>
       <c r="J112" s="16"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>576</v>
       </c>
@@ -5272,7 +5279,7 @@
       </c>
       <c r="J113" s="16"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>179</v>
       </c>
@@ -5292,7 +5299,7 @@
       </c>
       <c r="J114" s="16"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>180</v>
       </c>
@@ -5312,7 +5319,7 @@
       </c>
       <c r="J115" s="16"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>181</v>
       </c>
@@ -5332,7 +5339,7 @@
       </c>
       <c r="J116" s="16"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>267</v>
       </c>
@@ -5352,7 +5359,7 @@
       </c>
       <c r="J117" s="16"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>260</v>
       </c>
@@ -5372,7 +5379,7 @@
       </c>
       <c r="J118" s="16"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>270</v>
       </c>
@@ -5392,7 +5399,7 @@
       </c>
       <c r="J119" s="16"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>265</v>
       </c>
@@ -5412,7 +5419,7 @@
       </c>
       <c r="J120" s="16"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>282</v>
       </c>
@@ -5432,7 +5439,7 @@
       </c>
       <c r="J121" s="16"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>292</v>
       </c>
@@ -5452,7 +5459,7 @@
       </c>
       <c r="J122" s="16"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>296</v>
       </c>
@@ -5472,7 +5479,7 @@
       </c>
       <c r="J123" s="16"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>321</v>
       </c>
@@ -5492,7 +5499,7 @@
       </c>
       <c r="J124" s="16"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>310</v>
       </c>
@@ -5512,7 +5519,7 @@
       </c>
       <c r="J125" s="16"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>273</v>
       </c>
@@ -5532,7 +5539,7 @@
       </c>
       <c r="J126" s="16"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>182</v>
       </c>
@@ -5552,7 +5559,7 @@
       </c>
       <c r="J127" s="16"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>183</v>
       </c>
@@ -5572,7 +5579,7 @@
       </c>
       <c r="J128" s="16"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>83</v>
       </c>
@@ -5598,7 +5605,7 @@
       </c>
       <c r="J129" s="16"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>185</v>
       </c>
@@ -5618,7 +5625,7 @@
       </c>
       <c r="J130" s="16"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>457</v>
       </c>
@@ -5640,7 +5647,7 @@
       </c>
       <c r="J131" s="16"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>356</v>
       </c>
@@ -5662,7 +5669,7 @@
       </c>
       <c r="J132" s="16"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>376</v>
       </c>
@@ -5684,7 +5691,7 @@
       </c>
       <c r="J133" s="16"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>464</v>
       </c>
@@ -5706,7 +5713,7 @@
       </c>
       <c r="J134" s="16"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>416</v>
       </c>
@@ -5728,7 +5735,7 @@
       </c>
       <c r="J135" s="16"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>370</v>
       </c>
@@ -5748,7 +5755,7 @@
       </c>
       <c r="J136" s="16"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>585</v>
       </c>
@@ -5768,7 +5775,7 @@
       </c>
       <c r="J137" s="16"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>186</v>
       </c>
@@ -5788,7 +5795,7 @@
       </c>
       <c r="J138" s="16"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>187</v>
       </c>
@@ -5808,7 +5815,7 @@
       </c>
       <c r="J139" s="16"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>188</v>
       </c>
@@ -5828,7 +5835,7 @@
       </c>
       <c r="J140" s="16"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>189</v>
       </c>
@@ -5848,7 +5855,7 @@
       </c>
       <c r="J141" s="16"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>190</v>
       </c>
@@ -5868,7 +5875,7 @@
       </c>
       <c r="J142" s="16"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>85</v>
       </c>
@@ -5894,7 +5901,7 @@
       </c>
       <c r="J143" s="16"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>191</v>
       </c>
@@ -5914,7 +5921,7 @@
       </c>
       <c r="J144" s="16"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>32</v>
       </c>
@@ -5938,7 +5945,7 @@
       </c>
       <c r="J145" s="16"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>60</v>
       </c>
@@ -5964,7 +5971,7 @@
       </c>
       <c r="J146" s="16"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>87</v>
       </c>
@@ -5990,7 +5997,7 @@
       </c>
       <c r="J147" s="16"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>192</v>
       </c>
@@ -6010,7 +6017,7 @@
       </c>
       <c r="J148" s="16"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>52</v>
       </c>
@@ -6036,7 +6043,7 @@
       </c>
       <c r="J149" s="16"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>62</v>
       </c>
@@ -6062,7 +6069,7 @@
       </c>
       <c r="J150" s="16"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>108</v>
       </c>
@@ -6082,7 +6089,7 @@
       </c>
       <c r="J151" s="16"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>195</v>
       </c>
@@ -6102,7 +6109,7 @@
       </c>
       <c r="J152" s="18"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>53</v>
       </c>
@@ -6128,7 +6135,7 @@
       </c>
       <c r="J153" s="16"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>198</v>
       </c>
@@ -6148,7 +6155,7 @@
       </c>
       <c r="J154" s="16"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>201</v>
       </c>
@@ -6168,7 +6175,7 @@
       </c>
       <c r="J155" s="16"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>88</v>
       </c>
@@ -6194,7 +6201,7 @@
       </c>
       <c r="J156" s="16"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>202</v>
       </c>
@@ -6214,7 +6221,7 @@
       </c>
       <c r="J157" s="16"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>597</v>
       </c>
@@ -6234,7 +6241,7 @@
       </c>
       <c r="J158" s="16"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>302</v>
       </c>
@@ -6258,7 +6265,7 @@
       </c>
       <c r="J159" s="17"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>301</v>
       </c>
@@ -6282,7 +6289,7 @@
       </c>
       <c r="J160" s="17"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>112</v>
       </c>
@@ -6302,7 +6309,7 @@
       </c>
       <c r="J161" s="17"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>430</v>
       </c>
@@ -6324,7 +6331,7 @@
       </c>
       <c r="J162" s="17"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>482</v>
       </c>
@@ -6346,7 +6353,7 @@
       </c>
       <c r="J163" s="17"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>525</v>
       </c>
@@ -6368,7 +6375,7 @@
       </c>
       <c r="J164" s="17"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>406</v>
       </c>
@@ -6394,7 +6401,7 @@
       </c>
       <c r="J165" s="17"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>454</v>
       </c>
@@ -6414,7 +6421,7 @@
       </c>
       <c r="J166" s="17"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>114</v>
       </c>
@@ -6434,7 +6441,7 @@
       </c>
       <c r="J167" s="17"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>115</v>
       </c>
@@ -6454,7 +6461,7 @@
       </c>
       <c r="J168" s="17"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>116</v>
       </c>
@@ -6474,7 +6481,7 @@
       </c>
       <c r="J169" s="17"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>117</v>
       </c>
@@ -6494,7 +6501,7 @@
       </c>
       <c r="J170" s="17"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>118</v>
       </c>
@@ -6514,7 +6521,7 @@
       </c>
       <c r="J171" s="17"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>409</v>
       </c>
@@ -6540,7 +6547,7 @@
       </c>
       <c r="J172" s="17"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>241</v>
       </c>
@@ -6562,7 +6569,7 @@
       </c>
       <c r="J173" s="17"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>120</v>
       </c>
@@ -6582,7 +6589,7 @@
       </c>
       <c r="J174" s="17"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>122</v>
       </c>
@@ -6602,7 +6609,7 @@
       </c>
       <c r="J175" s="17"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>307</v>
       </c>
@@ -6622,7 +6629,7 @@
       </c>
       <c r="J176" s="17"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>410</v>
       </c>
@@ -6644,7 +6651,7 @@
       </c>
       <c r="J177" s="17"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>125</v>
       </c>
@@ -6664,7 +6671,7 @@
       </c>
       <c r="J178" s="17"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>126</v>
       </c>
@@ -6684,7 +6691,7 @@
       </c>
       <c r="J179" s="17"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>533</v>
       </c>
@@ -6704,7 +6711,7 @@
       </c>
       <c r="J180" s="17"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>534</v>
       </c>
@@ -6724,7 +6731,7 @@
       </c>
       <c r="J181" s="17"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>537</v>
       </c>
@@ -6744,7 +6751,7 @@
       </c>
       <c r="J182" s="17"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>604</v>
       </c>
@@ -6764,7 +6771,7 @@
       </c>
       <c r="J183" s="17"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>353</v>
       </c>
@@ -6784,7 +6791,7 @@
       </c>
       <c r="J184" s="17"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>386</v>
       </c>
@@ -6806,7 +6813,7 @@
       </c>
       <c r="J185" s="17"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>377</v>
       </c>
@@ -6828,7 +6835,7 @@
       </c>
       <c r="J186" s="17"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>394</v>
       </c>
@@ -6850,7 +6857,7 @@
       </c>
       <c r="J187" s="17"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>455</v>
       </c>
@@ -6872,7 +6879,7 @@
       </c>
       <c r="J188" s="17"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>442</v>
       </c>
@@ -6892,7 +6899,7 @@
       </c>
       <c r="J189" s="17"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>531</v>
       </c>
@@ -6912,7 +6919,7 @@
       </c>
       <c r="J190" s="17"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>323</v>
       </c>
@@ -6934,7 +6941,7 @@
       </c>
       <c r="J191" s="17"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>411</v>
       </c>
@@ -6956,7 +6963,7 @@
       </c>
       <c r="J192" s="17"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>443</v>
       </c>
@@ -6976,7 +6983,7 @@
       </c>
       <c r="J193" s="17"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>16</v>
       </c>
@@ -7000,7 +7007,7 @@
       </c>
       <c r="J194" s="17"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>408</v>
       </c>
@@ -7026,7 +7033,7 @@
       </c>
       <c r="J195" s="17"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>611</v>
       </c>
@@ -7046,7 +7053,7 @@
       </c>
       <c r="J196" s="17"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>446</v>
       </c>
@@ -7066,7 +7073,7 @@
       </c>
       <c r="J197" s="17"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>429</v>
       </c>
@@ -7088,7 +7095,7 @@
       </c>
       <c r="J198" s="17"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>447</v>
       </c>
@@ -7108,7 +7115,7 @@
       </c>
       <c r="J199" s="17"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>530</v>
       </c>
@@ -7128,7 +7135,7 @@
       </c>
       <c r="J200" s="17"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>244</v>
       </c>
@@ -7150,7 +7157,7 @@
       </c>
       <c r="J201" s="17"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>130</v>
       </c>
@@ -7170,7 +7177,7 @@
       </c>
       <c r="J202" s="17"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>440</v>
       </c>
@@ -7190,7 +7197,7 @@
       </c>
       <c r="J203" s="17"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>463</v>
       </c>
@@ -7210,7 +7217,7 @@
       </c>
       <c r="J204" s="17"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>538</v>
       </c>
@@ -7230,7 +7237,7 @@
       </c>
       <c r="J205" s="17"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>132</v>
       </c>
@@ -7250,7 +7257,7 @@
       </c>
       <c r="J206" s="17"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>133</v>
       </c>
@@ -7270,7 +7277,7 @@
       </c>
       <c r="J207" s="17"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>444</v>
       </c>
@@ -7290,7 +7297,7 @@
       </c>
       <c r="J208" s="17"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -7314,7 +7321,7 @@
       </c>
       <c r="J209" s="17"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>19</v>
       </c>
@@ -7338,7 +7345,7 @@
       </c>
       <c r="J210" s="17"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>612</v>
       </c>
@@ -7358,7 +7365,7 @@
       </c>
       <c r="J211" s="17"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>324</v>
       </c>
@@ -7378,7 +7385,7 @@
       </c>
       <c r="J212" s="17"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>395</v>
       </c>
@@ -7400,7 +7407,7 @@
       </c>
       <c r="J213" s="17"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>512</v>
       </c>
@@ -7422,7 +7429,7 @@
       </c>
       <c r="J214" s="17"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>396</v>
       </c>
@@ -7444,7 +7451,7 @@
       </c>
       <c r="J215" s="17"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>373</v>
       </c>
@@ -7466,7 +7473,7 @@
       </c>
       <c r="J216" s="17"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>421</v>
       </c>
@@ -7488,7 +7495,7 @@
       </c>
       <c r="J217" s="17"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>422</v>
       </c>
@@ -7508,7 +7515,7 @@
       </c>
       <c r="J218" s="17"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>539</v>
       </c>
@@ -7528,7 +7535,7 @@
       </c>
       <c r="J219" s="17"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>540</v>
       </c>
@@ -7548,7 +7555,7 @@
       </c>
       <c r="J220" s="17"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>541</v>
       </c>
@@ -7568,7 +7575,7 @@
       </c>
       <c r="J221" s="17"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>543</v>
       </c>
@@ -7588,7 +7595,7 @@
       </c>
       <c r="J222" s="17"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>544</v>
       </c>
@@ -7608,7 +7615,7 @@
       </c>
       <c r="J223" s="17"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>246</v>
       </c>
@@ -7630,7 +7637,7 @@
       </c>
       <c r="J224" s="17"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>143</v>
       </c>
@@ -7650,7 +7657,7 @@
       </c>
       <c r="J225" s="17"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>545</v>
       </c>
@@ -7670,7 +7677,7 @@
       </c>
       <c r="J226" s="17"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>546</v>
       </c>
@@ -7690,7 +7697,7 @@
       </c>
       <c r="J227" s="17"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>547</v>
       </c>
@@ -7710,7 +7717,7 @@
       </c>
       <c r="J228" s="17"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>511</v>
       </c>
@@ -7732,7 +7739,7 @@
       </c>
       <c r="J229" s="17"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>474</v>
       </c>
@@ -7754,7 +7761,7 @@
       </c>
       <c r="J230" s="17"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>506</v>
       </c>
@@ -7774,7 +7781,7 @@
       </c>
       <c r="J231" s="17"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>352</v>
       </c>
@@ -7800,7 +7807,7 @@
       </c>
       <c r="J232" s="17"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>342</v>
       </c>
@@ -7826,7 +7833,7 @@
       </c>
       <c r="J233" s="17"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>336</v>
       </c>
@@ -7852,7 +7859,7 @@
       </c>
       <c r="J234" s="17"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>335</v>
       </c>
@@ -7878,7 +7885,7 @@
       </c>
       <c r="J235" s="17"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>58</v>
       </c>
@@ -7904,7 +7911,7 @@
       </c>
       <c r="J236" s="17"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>524</v>
       </c>
@@ -7924,7 +7931,7 @@
       </c>
       <c r="J237" s="17"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>426</v>
       </c>
@@ -7944,7 +7951,7 @@
       </c>
       <c r="J238" s="17"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>488</v>
       </c>
@@ -7970,7 +7977,7 @@
       </c>
       <c r="J239" s="17"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>367</v>
       </c>
@@ -7990,7 +7997,7 @@
       </c>
       <c r="J240" s="17"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>549</v>
       </c>
@@ -8010,7 +8017,7 @@
       </c>
       <c r="J241" s="17"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>550</v>
       </c>
@@ -8030,7 +8037,7 @@
       </c>
       <c r="J242" s="17"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>551</v>
       </c>
@@ -8050,7 +8057,7 @@
       </c>
       <c r="J243" s="17"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>378</v>
       </c>
@@ -8076,7 +8083,7 @@
       </c>
       <c r="J244" s="17"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>431</v>
       </c>
@@ -8102,7 +8109,7 @@
       </c>
       <c r="J245" s="17"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>552</v>
       </c>
@@ -8122,7 +8129,7 @@
       </c>
       <c r="J246" s="17"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -8144,7 +8151,7 @@
       </c>
       <c r="J247" s="17"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>144</v>
       </c>
@@ -8164,7 +8171,7 @@
       </c>
       <c r="J248" s="17"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>145</v>
       </c>
@@ -8184,7 +8191,7 @@
       </c>
       <c r="J249" s="17"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>146</v>
       </c>
@@ -8204,7 +8211,7 @@
       </c>
       <c r="J250" s="17"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>147</v>
       </c>
@@ -8224,7 +8231,7 @@
       </c>
       <c r="J251" s="17"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>230</v>
       </c>
@@ -8244,7 +8251,7 @@
       </c>
       <c r="J252" s="17"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>280</v>
       </c>
@@ -8264,7 +8271,7 @@
       </c>
       <c r="J253" s="17"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>266</v>
       </c>
@@ -8284,7 +8291,7 @@
       </c>
       <c r="J254" s="17"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>297</v>
       </c>
@@ -8304,7 +8311,7 @@
       </c>
       <c r="J255" s="17"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>450</v>
       </c>
@@ -8324,7 +8331,7 @@
       </c>
       <c r="J256" s="17"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>478</v>
       </c>
@@ -8350,7 +8357,7 @@
       </c>
       <c r="J257" s="17"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>425</v>
       </c>
@@ -8370,7 +8377,7 @@
       </c>
       <c r="J258" s="17"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>308</v>
       </c>
@@ -8390,7 +8397,7 @@
       </c>
       <c r="J259" s="17"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>379</v>
       </c>
@@ -8414,7 +8421,7 @@
       </c>
       <c r="J260" s="17"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>250</v>
       </c>
@@ -8436,7 +8443,7 @@
       </c>
       <c r="J261" s="17"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>315</v>
       </c>
@@ -8456,7 +8463,7 @@
       </c>
       <c r="J262" s="17"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>368</v>
       </c>
@@ -8478,7 +8485,7 @@
       </c>
       <c r="J263" s="17"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>354</v>
       </c>
@@ -8498,7 +8505,7 @@
       </c>
       <c r="J264" s="17"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>355</v>
       </c>
@@ -8520,7 +8527,7 @@
       </c>
       <c r="J265" s="17"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>555</v>
       </c>
@@ -8540,7 +8547,7 @@
       </c>
       <c r="J266" s="17"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>262</v>
       </c>
@@ -8560,7 +8567,7 @@
       </c>
       <c r="J267" s="17"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>357</v>
       </c>
@@ -8580,7 +8587,7 @@
       </c>
       <c r="J268" s="17"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>276</v>
       </c>
@@ -8600,7 +8607,7 @@
       </c>
       <c r="J269" s="17"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>358</v>
       </c>
@@ -8620,7 +8627,7 @@
       </c>
       <c r="J270" s="17"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>277</v>
       </c>
@@ -8640,7 +8647,7 @@
       </c>
       <c r="J271" s="17"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>390</v>
       </c>
@@ -8666,7 +8673,7 @@
       </c>
       <c r="J272" s="17"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>557</v>
       </c>
@@ -8686,7 +8693,7 @@
       </c>
       <c r="J273" s="17"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>456</v>
       </c>
@@ -8706,7 +8713,7 @@
       </c>
       <c r="J274" s="17"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>559</v>
       </c>
@@ -8726,7 +8733,7 @@
       </c>
       <c r="J275" s="17"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>560</v>
       </c>
@@ -8746,7 +8753,7 @@
       </c>
       <c r="J276" s="17"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>350</v>
       </c>
@@ -8772,7 +8779,7 @@
       </c>
       <c r="J277" s="17"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>432</v>
       </c>
@@ -8794,7 +8801,7 @@
       </c>
       <c r="J278" s="17"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>389</v>
       </c>
@@ -8814,7 +8821,7 @@
       </c>
       <c r="J279" s="17"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>501</v>
       </c>
@@ -8836,7 +8843,7 @@
       </c>
       <c r="J280" s="17"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>427</v>
       </c>
@@ -8862,7 +8869,7 @@
       </c>
       <c r="J281" s="17"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>68</v>
       </c>
@@ -8888,7 +8895,7 @@
       </c>
       <c r="J282" s="17"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>338</v>
       </c>
@@ -8912,7 +8919,7 @@
       </c>
       <c r="J283" s="17"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>561</v>
       </c>
@@ -8932,7 +8939,7 @@
       </c>
       <c r="J284" s="17"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>562</v>
       </c>
@@ -8952,7 +8959,7 @@
       </c>
       <c r="J285" s="17"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>359</v>
       </c>
@@ -8974,7 +8981,7 @@
       </c>
       <c r="J286" s="17"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>344</v>
       </c>
@@ -8996,7 +9003,7 @@
       </c>
       <c r="J287" s="17"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>327</v>
       </c>
@@ -9016,7 +9023,7 @@
       </c>
       <c r="J288" s="17"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>564</v>
       </c>
@@ -9036,7 +9043,7 @@
       </c>
       <c r="J289" s="17"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>565</v>
       </c>
@@ -9056,7 +9063,7 @@
       </c>
       <c r="J290" s="17"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>304</v>
       </c>
@@ -9076,7 +9083,7 @@
       </c>
       <c r="J291" s="17"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>311</v>
       </c>
@@ -9102,7 +9109,7 @@
       </c>
       <c r="J292" s="17"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>333</v>
       </c>
@@ -9128,7 +9135,7 @@
       </c>
       <c r="J293" s="17"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>21</v>
       </c>
@@ -9152,7 +9159,7 @@
       </c>
       <c r="J294" s="17"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>469</v>
       </c>
@@ -9178,7 +9185,7 @@
       </c>
       <c r="J295" s="17"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>345</v>
       </c>
@@ -9198,7 +9205,7 @@
       </c>
       <c r="J296" s="17"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>397</v>
       </c>
@@ -9220,7 +9227,7 @@
       </c>
       <c r="J297" s="17"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>433</v>
       </c>
@@ -9242,7 +9249,7 @@
       </c>
       <c r="J298" s="17"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>303</v>
       </c>
@@ -9262,7 +9269,7 @@
       </c>
       <c r="J299" s="17"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>462</v>
       </c>
@@ -9284,7 +9291,7 @@
       </c>
       <c r="J300" s="17"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>516</v>
       </c>
@@ -9306,7 +9313,7 @@
       </c>
       <c r="J301" s="17"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>566</v>
       </c>
@@ -9326,7 +9333,7 @@
       </c>
       <c r="J302" s="17"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>23</v>
       </c>
@@ -9350,7 +9357,7 @@
       </c>
       <c r="J303" s="17"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>526</v>
       </c>
@@ -9376,7 +9383,7 @@
       </c>
       <c r="J304" s="17"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>567</v>
       </c>
@@ -9396,7 +9403,7 @@
       </c>
       <c r="J305" s="17"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>568</v>
       </c>
@@ -9416,7 +9423,7 @@
       </c>
       <c r="J306" s="17"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>155</v>
       </c>
@@ -9436,7 +9443,7 @@
       </c>
       <c r="J307" s="17"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>156</v>
       </c>
@@ -9456,7 +9463,7 @@
       </c>
       <c r="J308" s="17"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>157</v>
       </c>
@@ -9476,7 +9483,7 @@
       </c>
       <c r="J309" s="17"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>158</v>
       </c>
@@ -9496,7 +9503,7 @@
       </c>
       <c r="J310" s="17"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>295</v>
       </c>
@@ -9516,7 +9523,7 @@
       </c>
       <c r="J311" s="17"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>328</v>
       </c>
@@ -9536,7 +9543,7 @@
       </c>
       <c r="J312" s="17"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>398</v>
       </c>
@@ -9556,7 +9563,7 @@
       </c>
       <c r="J313" s="17"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>399</v>
       </c>
@@ -9576,7 +9583,7 @@
       </c>
       <c r="J314" s="17"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>519</v>
       </c>
@@ -9596,7 +9603,7 @@
       </c>
       <c r="J315" s="17"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>351</v>
       </c>
@@ -9618,7 +9625,7 @@
       </c>
       <c r="J316" s="17"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>360</v>
       </c>
@@ -9640,7 +9647,7 @@
       </c>
       <c r="J317" s="17"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>458</v>
       </c>
@@ -9662,7 +9669,7 @@
       </c>
       <c r="J318" s="17"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>361</v>
       </c>
@@ -9684,7 +9691,7 @@
       </c>
       <c r="J319" s="17"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>496</v>
       </c>
@@ -9706,7 +9713,7 @@
       </c>
       <c r="J320" s="17"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>362</v>
       </c>
@@ -9728,7 +9735,7 @@
       </c>
       <c r="J321" s="17"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>363</v>
       </c>
@@ -9750,7 +9757,7 @@
       </c>
       <c r="J322" s="17"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>364</v>
       </c>
@@ -9772,7 +9779,7 @@
       </c>
       <c r="J323" s="17"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>467</v>
       </c>
@@ -9794,7 +9801,7 @@
       </c>
       <c r="J324" s="17"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>320</v>
       </c>
@@ -9816,7 +9823,7 @@
       </c>
       <c r="J325" s="17"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>381</v>
       </c>
@@ -9838,7 +9845,7 @@
       </c>
       <c r="J326" s="17"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>412</v>
       </c>
@@ -9860,7 +9867,7 @@
       </c>
       <c r="J327" s="17"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>365</v>
       </c>
@@ -9882,7 +9889,7 @@
       </c>
       <c r="J328" s="17"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>316</v>
       </c>
@@ -9904,7 +9911,7 @@
       </c>
       <c r="J329" s="17"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>382</v>
       </c>
@@ -9924,7 +9931,7 @@
       </c>
       <c r="J330" s="17"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>571</v>
       </c>
@@ -9944,7 +9951,7 @@
       </c>
       <c r="J331" s="17"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>572</v>
       </c>
@@ -9964,7 +9971,7 @@
       </c>
       <c r="J332" s="17"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>573</v>
       </c>
@@ -9984,7 +9991,7 @@
       </c>
       <c r="J333" s="17"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>574</v>
       </c>
@@ -10004,7 +10011,7 @@
       </c>
       <c r="J334" s="17"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>294</v>
       </c>
@@ -10024,7 +10031,7 @@
       </c>
       <c r="J335" s="17"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>483</v>
       </c>
@@ -10044,7 +10051,7 @@
       </c>
       <c r="J336" s="17"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>319</v>
       </c>
@@ -10064,7 +10071,7 @@
       </c>
       <c r="J337" s="17"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>575</v>
       </c>
@@ -10084,7 +10091,7 @@
       </c>
       <c r="J338" s="17"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>325</v>
       </c>
@@ -10110,7 +10117,7 @@
       </c>
       <c r="J339" s="17"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>400</v>
       </c>
@@ -10130,7 +10137,7 @@
       </c>
       <c r="J340" s="17"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>577</v>
       </c>
@@ -10150,7 +10157,7 @@
       </c>
       <c r="J341" s="17"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>553</v>
       </c>
@@ -10170,7 +10177,7 @@
       </c>
       <c r="J342" s="17"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>55</v>
       </c>
@@ -10196,7 +10203,7 @@
       </c>
       <c r="J343" s="17"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>48</v>
       </c>
@@ -10222,7 +10229,7 @@
       </c>
       <c r="J344" s="17"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>578</v>
       </c>
@@ -10242,7 +10249,7 @@
       </c>
       <c r="J345" s="17"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>168</v>
       </c>
@@ -10262,7 +10269,7 @@
       </c>
       <c r="J346" s="17"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>101</v>
       </c>
@@ -10288,7 +10295,7 @@
       </c>
       <c r="J347" s="17"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>79</v>
       </c>
@@ -10314,7 +10321,7 @@
       </c>
       <c r="J348" s="17"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>340</v>
       </c>
@@ -10340,7 +10347,7 @@
       </c>
       <c r="J349" s="17"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>388</v>
       </c>
@@ -10362,7 +10369,7 @@
       </c>
       <c r="J350" s="17"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>434</v>
       </c>
@@ -10384,7 +10391,7 @@
       </c>
       <c r="J351" s="17"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>428</v>
       </c>
@@ -10404,7 +10411,7 @@
       </c>
       <c r="J352" s="17"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>435</v>
       </c>
@@ -10426,7 +10433,7 @@
       </c>
       <c r="J353" s="17"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>251</v>
       </c>
@@ -10448,7 +10455,7 @@
       </c>
       <c r="J354" s="17"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>170</v>
       </c>
@@ -10468,7 +10475,7 @@
       </c>
       <c r="J355" s="17"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>493</v>
       </c>
@@ -10490,7 +10497,7 @@
       </c>
       <c r="J356" s="17"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>424</v>
       </c>
@@ -10510,7 +10517,7 @@
       </c>
       <c r="J357" s="17"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>602</v>
       </c>
@@ -10530,7 +10537,7 @@
       </c>
       <c r="J358" s="17"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>274</v>
       </c>
@@ -10550,7 +10557,7 @@
       </c>
       <c r="J359" s="17"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>80</v>
       </c>
@@ -10576,7 +10583,7 @@
       </c>
       <c r="J360" s="17"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>369</v>
       </c>
@@ -10598,7 +10605,7 @@
       </c>
       <c r="J361" s="17"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>252</v>
       </c>
@@ -10620,7 +10627,7 @@
       </c>
       <c r="J362" s="17"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>172</v>
       </c>
@@ -10640,7 +10647,7 @@
       </c>
       <c r="J363" s="17"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>81</v>
       </c>
@@ -10664,7 +10671,7 @@
       </c>
       <c r="J364" s="17"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>329</v>
       </c>
@@ -10686,7 +10693,7 @@
       </c>
       <c r="J365" s="17"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>298</v>
       </c>
@@ -10706,7 +10713,7 @@
       </c>
       <c r="J366" s="17"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>103</v>
       </c>
@@ -10730,7 +10737,7 @@
       </c>
       <c r="J367" s="17"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>436</v>
       </c>
@@ -10752,7 +10759,7 @@
       </c>
       <c r="J368" s="17"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>374</v>
       </c>
@@ -10778,7 +10785,7 @@
       </c>
       <c r="J369" s="17"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>523</v>
       </c>
@@ -10798,7 +10805,7 @@
       </c>
       <c r="J370" s="17"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>334</v>
       </c>
@@ -10818,7 +10825,7 @@
       </c>
       <c r="J371" s="17"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>372</v>
       </c>
@@ -10838,7 +10845,7 @@
       </c>
       <c r="J372" s="17"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>299</v>
       </c>
@@ -10858,7 +10865,7 @@
       </c>
       <c r="J373" s="17"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>253</v>
       </c>
@@ -10880,7 +10887,7 @@
       </c>
       <c r="J374" s="17"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>582</v>
       </c>
@@ -10900,7 +10907,7 @@
       </c>
       <c r="J375" s="17"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>371</v>
       </c>
@@ -10920,7 +10927,7 @@
       </c>
       <c r="J376" s="17"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>13</v>
       </c>
@@ -10944,7 +10951,7 @@
       </c>
       <c r="J377" s="17"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>254</v>
       </c>
@@ -10966,7 +10973,7 @@
       </c>
       <c r="J378" s="17"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>235</v>
       </c>
@@ -10986,7 +10993,7 @@
       </c>
       <c r="J379" s="17"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>583</v>
       </c>
@@ -11006,7 +11013,7 @@
       </c>
       <c r="J380" s="17"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>175</v>
       </c>
@@ -11026,7 +11033,7 @@
       </c>
       <c r="J381" s="17"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>413</v>
       </c>
@@ -11048,7 +11055,7 @@
       </c>
       <c r="J382" s="17"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>176</v>
       </c>
@@ -11068,7 +11075,7 @@
       </c>
       <c r="J383" s="17"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>401</v>
       </c>
@@ -11088,7 +11095,7 @@
       </c>
       <c r="J384" s="17"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>402</v>
       </c>
@@ -11108,7 +11115,7 @@
       </c>
       <c r="J385" s="17"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>391</v>
       </c>
@@ -11130,7 +11137,7 @@
       </c>
       <c r="J386" s="17"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>264</v>
       </c>
@@ -11150,7 +11157,7 @@
       </c>
       <c r="J387" s="17"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>82</v>
       </c>
@@ -11176,7 +11183,7 @@
       </c>
       <c r="J388" s="17"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>415</v>
       </c>
@@ -11196,7 +11203,7 @@
       </c>
       <c r="J389" s="17"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>339</v>
       </c>
@@ -11218,7 +11225,7 @@
       </c>
       <c r="J390" s="17"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>178</v>
       </c>
@@ -11238,7 +11245,7 @@
       </c>
       <c r="J391" s="17"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>27</v>
       </c>
@@ -11262,7 +11269,7 @@
       </c>
       <c r="J392" s="17"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>508</v>
       </c>
@@ -11288,7 +11295,7 @@
       </c>
       <c r="J393" s="17"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>480</v>
       </c>
@@ -11314,7 +11321,7 @@
       </c>
       <c r="J394" s="17"/>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>226</v>
       </c>
@@ -11334,7 +11341,7 @@
       </c>
       <c r="J395" s="17"/>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>441</v>
       </c>
@@ -11354,7 +11361,7 @@
       </c>
       <c r="J396" s="17"/>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>275</v>
       </c>
@@ -11374,7 +11381,7 @@
       </c>
       <c r="J397" s="17"/>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>309</v>
       </c>
@@ -11394,7 +11401,7 @@
       </c>
       <c r="J398" s="17"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>268</v>
       </c>
@@ -11414,7 +11421,7 @@
       </c>
       <c r="J399" s="17"/>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>278</v>
       </c>
@@ -11434,7 +11441,7 @@
       </c>
       <c r="J400" s="17"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>300</v>
       </c>
@@ -11454,7 +11461,7 @@
       </c>
       <c r="J401" s="17"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>281</v>
       </c>
@@ -11474,7 +11481,7 @@
       </c>
       <c r="J402" s="17"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>279</v>
       </c>
@@ -11494,7 +11501,7 @@
       </c>
       <c r="J403" s="17"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>269</v>
       </c>
@@ -11514,7 +11521,7 @@
       </c>
       <c r="J404" s="17"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>272</v>
       </c>
@@ -11534,7 +11541,7 @@
       </c>
       <c r="J405" s="17"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>584</v>
       </c>
@@ -11554,7 +11561,7 @@
       </c>
       <c r="J406" s="17"/>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>255</v>
       </c>
@@ -11576,7 +11583,7 @@
       </c>
       <c r="J407" s="17"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>50</v>
       </c>
@@ -11602,7 +11609,7 @@
       </c>
       <c r="J408" s="17"/>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>599</v>
       </c>
@@ -11622,7 +11629,7 @@
       </c>
       <c r="J409" s="17"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>184</v>
       </c>
@@ -11642,7 +11649,7 @@
       </c>
       <c r="J410" s="17"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>29</v>
       </c>
@@ -11666,7 +11673,7 @@
       </c>
       <c r="J411" s="17"/>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>504</v>
       </c>
@@ -11688,7 +11695,7 @@
       </c>
       <c r="J412" s="17"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>387</v>
       </c>
@@ -11708,7 +11715,7 @@
       </c>
       <c r="J413" s="17"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>497</v>
       </c>
@@ -11730,7 +11737,7 @@
       </c>
       <c r="J414" s="17"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>579</v>
       </c>
@@ -11750,7 +11757,7 @@
       </c>
       <c r="J415" s="17"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>392</v>
       </c>
@@ -11772,7 +11779,7 @@
       </c>
       <c r="J416" s="17"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>347</v>
       </c>
@@ -11794,7 +11801,7 @@
       </c>
       <c r="J417" s="17"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>477</v>
       </c>
@@ -11816,7 +11823,7 @@
       </c>
       <c r="J418" s="17"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>481</v>
       </c>
@@ -11838,7 +11845,7 @@
       </c>
       <c r="J419" s="17"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>609</v>
       </c>
@@ -11858,7 +11865,7 @@
       </c>
       <c r="J420" s="17"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>475</v>
       </c>
@@ -11880,7 +11887,7 @@
       </c>
       <c r="J421" s="17"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>466</v>
       </c>
@@ -11902,7 +11909,7 @@
       </c>
       <c r="J422" s="17"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>486</v>
       </c>
@@ -11924,7 +11931,7 @@
       </c>
       <c r="J423" s="17"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>494</v>
       </c>
@@ -11946,7 +11953,7 @@
       </c>
       <c r="J424" s="17"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>520</v>
       </c>
@@ -11968,7 +11975,7 @@
       </c>
       <c r="J425" s="17"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>393</v>
       </c>
@@ -11990,7 +11997,7 @@
       </c>
       <c r="J426" s="17"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>318</v>
       </c>
@@ -12012,7 +12019,7 @@
       </c>
       <c r="J427" s="17"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>489</v>
       </c>
@@ -12034,7 +12041,7 @@
       </c>
       <c r="J428" s="17"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>330</v>
       </c>
@@ -12054,7 +12061,7 @@
       </c>
       <c r="J429" s="17"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>423</v>
       </c>
@@ -12076,7 +12083,7 @@
       </c>
       <c r="J430" s="17"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>495</v>
       </c>
@@ -12098,7 +12105,7 @@
       </c>
       <c r="J431" s="17"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>417</v>
       </c>
@@ -12120,7 +12127,7 @@
       </c>
       <c r="J432" s="17"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>513</v>
       </c>
@@ -12142,7 +12149,7 @@
       </c>
       <c r="J433" s="17"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>502</v>
       </c>
@@ -12164,7 +12171,7 @@
       </c>
       <c r="J434" s="17"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>509</v>
       </c>
@@ -12186,7 +12193,7 @@
       </c>
       <c r="J435" s="17"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>490</v>
       </c>
@@ -12208,7 +12215,7 @@
       </c>
       <c r="J436" s="17"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>492</v>
       </c>
@@ -12230,7 +12237,7 @@
       </c>
       <c r="J437" s="17"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>476</v>
       </c>
@@ -12252,7 +12259,7 @@
       </c>
       <c r="J438" s="17"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>521</v>
       </c>
@@ -12272,7 +12279,7 @@
       </c>
       <c r="J439" s="17"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>346</v>
       </c>
@@ -12292,7 +12299,7 @@
       </c>
       <c r="J440" s="17"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>383</v>
       </c>
@@ -12312,7 +12319,7 @@
       </c>
       <c r="J441" s="17"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>586</v>
       </c>
@@ -12332,7 +12339,7 @@
       </c>
       <c r="J442" s="17"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>24</v>
       </c>
@@ -12356,7 +12363,7 @@
       </c>
       <c r="J443" s="17"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>505</v>
       </c>
@@ -12378,7 +12385,7 @@
       </c>
       <c r="J444" s="17"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>418</v>
       </c>
@@ -12406,7 +12413,7 @@
       </c>
       <c r="J445" s="17"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>587</v>
       </c>
@@ -12426,7 +12433,7 @@
       </c>
       <c r="J446" s="17"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>256</v>
       </c>
@@ -12448,7 +12455,7 @@
       </c>
       <c r="J447" s="17"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>448</v>
       </c>
@@ -12468,7 +12475,7 @@
       </c>
       <c r="J448" s="17"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>236</v>
       </c>
@@ -12488,7 +12495,7 @@
       </c>
       <c r="J449" s="17"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>420</v>
       </c>
@@ -12514,7 +12521,7 @@
       </c>
       <c r="J450" s="17"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>313</v>
       </c>
@@ -12540,7 +12547,7 @@
       </c>
       <c r="J451" s="17"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>194</v>
       </c>
@@ -12560,7 +12567,7 @@
       </c>
       <c r="J452" s="17"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>588</v>
       </c>
@@ -12580,7 +12587,7 @@
       </c>
       <c r="J453" s="17"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>589</v>
       </c>
@@ -12600,7 +12607,7 @@
       </c>
       <c r="J454" s="17"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>404</v>
       </c>
@@ -12620,7 +12627,7 @@
       </c>
       <c r="J455" s="17"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>601</v>
       </c>
@@ -12640,7 +12647,7 @@
       </c>
       <c r="J456" s="17"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>403</v>
       </c>
@@ -12662,7 +12669,7 @@
       </c>
       <c r="J457" s="17"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>607</v>
       </c>
@@ -12682,7 +12689,7 @@
       </c>
       <c r="J458" s="17"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>600</v>
       </c>
@@ -12702,7 +12709,7 @@
       </c>
       <c r="J459" s="17"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>293</v>
       </c>
@@ -12722,7 +12729,7 @@
       </c>
       <c r="J460" s="17"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>196</v>
       </c>
@@ -12742,7 +12749,7 @@
       </c>
       <c r="J461" s="17"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>510</v>
       </c>
@@ -12768,7 +12775,7 @@
       </c>
       <c r="J462" s="17"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>468</v>
       </c>
@@ -12788,7 +12795,7 @@
       </c>
       <c r="J463" s="17"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>197</v>
       </c>
@@ -12808,7 +12815,7 @@
       </c>
       <c r="J464" s="17"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>30</v>
       </c>
@@ -12832,7 +12839,7 @@
       </c>
       <c r="J465" s="17"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>459</v>
       </c>
@@ -12854,7 +12861,7 @@
       </c>
       <c r="J466" s="17"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>470</v>
       </c>
@@ -12876,7 +12883,7 @@
       </c>
       <c r="J467" s="17"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>491</v>
       </c>
@@ -12898,7 +12905,7 @@
       </c>
       <c r="J468" s="17"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>465</v>
       </c>
@@ -12920,7 +12927,7 @@
       </c>
       <c r="J469" s="17"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>522</v>
       </c>
@@ -12942,7 +12949,7 @@
       </c>
       <c r="J470" s="17"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>485</v>
       </c>
@@ -12964,7 +12971,7 @@
       </c>
       <c r="J471" s="17"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>472</v>
       </c>
@@ -12986,7 +12993,7 @@
       </c>
       <c r="J472" s="17"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>348</v>
       </c>
@@ -13008,7 +13015,7 @@
       </c>
       <c r="J473" s="17"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>507</v>
       </c>
@@ -13030,7 +13037,7 @@
       </c>
       <c r="J474" s="17"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>451</v>
       </c>
@@ -13052,7 +13059,7 @@
       </c>
       <c r="J475" s="17"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>366</v>
       </c>
@@ -13074,7 +13081,7 @@
       </c>
       <c r="J476" s="17"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>445</v>
       </c>
@@ -13094,7 +13101,7 @@
       </c>
       <c r="J477" s="17"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>14</v>
       </c>
@@ -13118,7 +13125,7 @@
       </c>
       <c r="J478" s="17"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>407</v>
       </c>
@@ -13144,7 +13151,7 @@
       </c>
       <c r="J479" s="17"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>461</v>
       </c>
@@ -13166,7 +13173,7 @@
       </c>
       <c r="J480" s="17"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>517</v>
       </c>
@@ -13188,7 +13195,7 @@
       </c>
       <c r="J481" s="17"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>484</v>
       </c>
@@ -13210,7 +13217,7 @@
       </c>
       <c r="J482" s="17"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>514</v>
       </c>
@@ -13232,7 +13239,7 @@
       </c>
       <c r="J483" s="17"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>150</v>
       </c>
@@ -13252,7 +13259,7 @@
       </c>
       <c r="J484" s="17"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>199</v>
       </c>
@@ -13272,7 +13279,7 @@
       </c>
       <c r="J485" s="17"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>590</v>
       </c>
@@ -13292,7 +13299,7 @@
       </c>
       <c r="J486" s="17"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>200</v>
       </c>
@@ -13312,7 +13319,7 @@
       </c>
       <c r="J487" s="17"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>591</v>
       </c>
@@ -13332,7 +13339,7 @@
       </c>
       <c r="J488" s="17"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>257</v>
       </c>
@@ -13354,7 +13361,7 @@
       </c>
       <c r="J489" s="17"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>305</v>
       </c>
@@ -13380,7 +13387,7 @@
       </c>
       <c r="J490" s="17"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>258</v>
       </c>
@@ -13402,7 +13409,7 @@
       </c>
       <c r="J491" s="17"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>283</v>
       </c>
@@ -13422,7 +13429,7 @@
       </c>
       <c r="J492" s="17"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>592</v>
       </c>
@@ -13442,7 +13449,7 @@
       </c>
       <c r="J493" s="17"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>290</v>
       </c>
@@ -13468,7 +13475,7 @@
       </c>
       <c r="J494" s="17"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>285</v>
       </c>
@@ -13494,7 +13501,7 @@
       </c>
       <c r="J495" s="17"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>291</v>
       </c>
@@ -13520,7 +13527,7 @@
       </c>
       <c r="J496" s="17"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>287</v>
       </c>
@@ -13546,7 +13553,7 @@
       </c>
       <c r="J497" s="17"/>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>289</v>
       </c>
@@ -13572,7 +13579,7 @@
       </c>
       <c r="J498" s="17"/>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>288</v>
       </c>
@@ -13598,7 +13605,7 @@
       </c>
       <c r="J499" s="17"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>237</v>
       </c>
@@ -13618,7 +13625,7 @@
       </c>
       <c r="J500" s="17"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>608</v>
       </c>
@@ -13638,7 +13645,7 @@
       </c>
       <c r="J501" s="17"/>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>487</v>
       </c>
@@ -13664,7 +13671,7 @@
       </c>
       <c r="J502" s="17"/>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>593</v>
       </c>
@@ -13684,7 +13691,7 @@
       </c>
       <c r="J503" s="17"/>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>452</v>
       </c>
@@ -13706,7 +13713,7 @@
       </c>
       <c r="J504" s="17"/>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>384</v>
       </c>
@@ -13728,7 +13735,7 @@
       </c>
       <c r="J505" s="17"/>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>453</v>
       </c>
@@ -13750,7 +13757,7 @@
       </c>
       <c r="J506" s="17"/>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>498</v>
       </c>
@@ -13772,7 +13779,7 @@
       </c>
       <c r="J507" s="17"/>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>499</v>
       </c>
@@ -13794,7 +13801,7 @@
       </c>
       <c r="J508" s="17"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>331</v>
       </c>
@@ -13814,7 +13821,7 @@
       </c>
       <c r="J509" s="17"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>437</v>
       </c>
@@ -13834,7 +13841,7 @@
       </c>
       <c r="J510" s="17"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>473</v>
       </c>
@@ -13856,7 +13863,7 @@
       </c>
       <c r="J511" s="17"/>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>500</v>
       </c>
@@ -13878,7 +13885,7 @@
       </c>
       <c r="J512" s="17"/>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>332</v>
       </c>
@@ -13898,7 +13905,7 @@
       </c>
       <c r="J513" s="17"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>438</v>
       </c>
@@ -13920,7 +13927,7 @@
       </c>
       <c r="J514" s="17"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>90</v>
       </c>
@@ -13944,7 +13951,7 @@
       </c>
       <c r="J515" s="17"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>203</v>
       </c>
@@ -13964,7 +13971,7 @@
       </c>
       <c r="J516" s="17"/>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>594</v>
       </c>
@@ -13984,7 +13991,7 @@
       </c>
       <c r="J517" s="17"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>204</v>
       </c>
@@ -14004,7 +14011,7 @@
       </c>
       <c r="J518" s="17"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>92</v>
       </c>
@@ -14030,7 +14037,7 @@
       </c>
       <c r="J519" s="17"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>326</v>
       </c>
@@ -14050,7 +14057,7 @@
       </c>
       <c r="J520" s="17"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>449</v>
       </c>
@@ -14072,7 +14079,7 @@
       </c>
       <c r="J521" s="17"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>405</v>
       </c>
@@ -14094,7 +14101,7 @@
       </c>
       <c r="J522" s="17"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>596</v>
       </c>
@@ -14114,7 +14121,7 @@
       </c>
       <c r="J523" s="17"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>598</v>
       </c>
@@ -14134,7 +14141,7 @@
       </c>
       <c r="J524" s="17"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>532</v>
       </c>
@@ -14154,7 +14161,7 @@
       </c>
       <c r="J525" s="17"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>259</v>
       </c>
